--- a/sample/data/well-spacing.xlsx
+++ b/sample/data/well-spacing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\github\spotfirefield\vizmod-gunbarrel\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SpotfireMods\well-spacing\sample\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46677B48-6DA4-4C10-B755-B3E147A8DB7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD42C7-2084-4C0B-A6A1-18B99716C3D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{7D74C571-1FD8-42F8-A528-D062AF51D65C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -48,142 +48,289 @@
     <t>layerType</t>
   </si>
   <si>
-    <t>Form A</t>
-  </si>
-  <si>
-    <t>Form B</t>
-  </si>
-  <si>
-    <t>Form C</t>
-  </si>
-  <si>
-    <t>W-318</t>
-  </si>
-  <si>
-    <t>W-17</t>
-  </si>
-  <si>
-    <t>W-153</t>
-  </si>
-  <si>
-    <t>W-677</t>
-  </si>
-  <si>
-    <t>W-680</t>
-  </si>
-  <si>
-    <t>W-643</t>
-  </si>
-  <si>
-    <t>W-803</t>
-  </si>
-  <si>
-    <t>W-990</t>
-  </si>
-  <si>
-    <t>W-845</t>
-  </si>
-  <si>
-    <t>W-757</t>
-  </si>
-  <si>
-    <t>W-433</t>
-  </si>
-  <si>
-    <t>W-64</t>
-  </si>
-  <si>
-    <t>W-248</t>
-  </si>
-  <si>
-    <t>W-549</t>
-  </si>
-  <si>
-    <t>W-33</t>
-  </si>
-  <si>
-    <t>W-85</t>
-  </si>
-  <si>
-    <t>R-741</t>
-  </si>
-  <si>
-    <t>R-289</t>
-  </si>
-  <si>
-    <t>R-301</t>
-  </si>
-  <si>
-    <t>R-439</t>
-  </si>
-  <si>
-    <t>R-265</t>
-  </si>
-  <si>
-    <t>R-594</t>
-  </si>
-  <si>
-    <t>R-263</t>
-  </si>
-  <si>
-    <t>R-354</t>
-  </si>
-  <si>
-    <t>R-170</t>
-  </si>
-  <si>
-    <t>R-407</t>
-  </si>
-  <si>
-    <t>R-343</t>
-  </si>
-  <si>
-    <t>R-506</t>
-  </si>
-  <si>
-    <t>R-853</t>
-  </si>
-  <si>
-    <t>R-221</t>
-  </si>
-  <si>
-    <t>R-597</t>
-  </si>
-  <si>
-    <t>P-1930</t>
-  </si>
-  <si>
-    <t>P-565</t>
-  </si>
-  <si>
-    <t>P-1334</t>
-  </si>
-  <si>
-    <t>P-1531</t>
-  </si>
-  <si>
-    <t>P-1441</t>
-  </si>
-  <si>
-    <t>P-407</t>
-  </si>
-  <si>
-    <t>P-1440</t>
-  </si>
-  <si>
-    <t>P-1555</t>
-  </si>
-  <si>
-    <t>P-1035</t>
-  </si>
-  <si>
-    <t>P-863</t>
-  </si>
-  <si>
-    <t>P-1958</t>
-  </si>
-  <si>
-    <t>P-849</t>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Zone 1</t>
+  </si>
+  <si>
+    <t>Zone 2</t>
+  </si>
+  <si>
+    <t>Form A2</t>
+  </si>
+  <si>
+    <t>Form B2</t>
+  </si>
+  <si>
+    <t>Form C2</t>
+  </si>
+  <si>
+    <t>W1-318</t>
+  </si>
+  <si>
+    <t>W1-17</t>
+  </si>
+  <si>
+    <t>W1-153</t>
+  </si>
+  <si>
+    <t>W1-677</t>
+  </si>
+  <si>
+    <t>W1-680</t>
+  </si>
+  <si>
+    <t>W1-643</t>
+  </si>
+  <si>
+    <t>W1-803</t>
+  </si>
+  <si>
+    <t>W1-990</t>
+  </si>
+  <si>
+    <t>W1-845</t>
+  </si>
+  <si>
+    <t>W1-757</t>
+  </si>
+  <si>
+    <t>W1-433</t>
+  </si>
+  <si>
+    <t>W1-64</t>
+  </si>
+  <si>
+    <t>W1-248</t>
+  </si>
+  <si>
+    <t>W1-549</t>
+  </si>
+  <si>
+    <t>W1-33</t>
+  </si>
+  <si>
+    <t>W1-85</t>
+  </si>
+  <si>
+    <t>R1-741</t>
+  </si>
+  <si>
+    <t>R1-289</t>
+  </si>
+  <si>
+    <t>R1-301</t>
+  </si>
+  <si>
+    <t>R1-439</t>
+  </si>
+  <si>
+    <t>R1-265</t>
+  </si>
+  <si>
+    <t>R1-594</t>
+  </si>
+  <si>
+    <t>R1-263</t>
+  </si>
+  <si>
+    <t>R1-354</t>
+  </si>
+  <si>
+    <t>R1-170</t>
+  </si>
+  <si>
+    <t>R1-407</t>
+  </si>
+  <si>
+    <t>R1-343</t>
+  </si>
+  <si>
+    <t>R1-506</t>
+  </si>
+  <si>
+    <t>R1-853</t>
+  </si>
+  <si>
+    <t>R1-221</t>
+  </si>
+  <si>
+    <t>R1-597</t>
+  </si>
+  <si>
+    <t>P1-1930</t>
+  </si>
+  <si>
+    <t>P1-565</t>
+  </si>
+  <si>
+    <t>P1-1334</t>
+  </si>
+  <si>
+    <t>P1-1531</t>
+  </si>
+  <si>
+    <t>P1-1441</t>
+  </si>
+  <si>
+    <t>P1-407</t>
+  </si>
+  <si>
+    <t>P1-1440</t>
+  </si>
+  <si>
+    <t>P1-1555</t>
+  </si>
+  <si>
+    <t>P1-1035</t>
+  </si>
+  <si>
+    <t>P1-863</t>
+  </si>
+  <si>
+    <t>P1-1958</t>
+  </si>
+  <si>
+    <t>P1-849</t>
+  </si>
+  <si>
+    <t>W2-318</t>
+  </si>
+  <si>
+    <t>W2-17</t>
+  </si>
+  <si>
+    <t>W2-153</t>
+  </si>
+  <si>
+    <t>W2-677</t>
+  </si>
+  <si>
+    <t>W2-680</t>
+  </si>
+  <si>
+    <t>W2-643</t>
+  </si>
+  <si>
+    <t>W2-803</t>
+  </si>
+  <si>
+    <t>W2-990</t>
+  </si>
+  <si>
+    <t>W2-845</t>
+  </si>
+  <si>
+    <t>W2-757</t>
+  </si>
+  <si>
+    <t>W2-433</t>
+  </si>
+  <si>
+    <t>W2-64</t>
+  </si>
+  <si>
+    <t>W2-248</t>
+  </si>
+  <si>
+    <t>W2-549</t>
+  </si>
+  <si>
+    <t>W2-33</t>
+  </si>
+  <si>
+    <t>W2-85</t>
+  </si>
+  <si>
+    <t>R2-741</t>
+  </si>
+  <si>
+    <t>R2-289</t>
+  </si>
+  <si>
+    <t>R2-301</t>
+  </si>
+  <si>
+    <t>R2-439</t>
+  </si>
+  <si>
+    <t>R2-265</t>
+  </si>
+  <si>
+    <t>R2-594</t>
+  </si>
+  <si>
+    <t>R2-263</t>
+  </si>
+  <si>
+    <t>R2-354</t>
+  </si>
+  <si>
+    <t>R2-170</t>
+  </si>
+  <si>
+    <t>R2-407</t>
+  </si>
+  <si>
+    <t>R2-343</t>
+  </si>
+  <si>
+    <t>R2-506</t>
+  </si>
+  <si>
+    <t>R2-853</t>
+  </si>
+  <si>
+    <t>R2-221</t>
+  </si>
+  <si>
+    <t>R2-597</t>
+  </si>
+  <si>
+    <t>P2-1930</t>
+  </si>
+  <si>
+    <t>P2-565</t>
+  </si>
+  <si>
+    <t>P2-1334</t>
+  </si>
+  <si>
+    <t>P2-1531</t>
+  </si>
+  <si>
+    <t>P2-1441</t>
+  </si>
+  <si>
+    <t>P2-407</t>
+  </si>
+  <si>
+    <t>P2-1440</t>
+  </si>
+  <si>
+    <t>P2-1555</t>
+  </si>
+  <si>
+    <t>P2-1035</t>
+  </si>
+  <si>
+    <t>P2-863</t>
+  </si>
+  <si>
+    <t>P2-1958</t>
+  </si>
+  <si>
+    <t>P2-849</t>
+  </si>
+  <si>
+    <t>Form A1</t>
+  </si>
+  <si>
+    <t>Form B1</t>
+  </si>
+  <si>
+    <t>Form C1</t>
   </si>
 </sst>
 </file>
@@ -535,11 +682,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA3B87C-4490-40D3-85A2-AFC7C9DF992D}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="F95" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -550,7 +695,7 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -566,13 +711,16 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>-7890</v>
@@ -580,13 +728,16 @@
       <c r="D2">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>-7894</v>
@@ -594,13 +745,16 @@
       <c r="D3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>-7896</v>
@@ -608,13 +762,16 @@
       <c r="D4">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>-7897</v>
@@ -622,13 +779,16 @@
       <c r="D5">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>-7898</v>
@@ -636,13 +796,16 @@
       <c r="D6">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>-7902</v>
@@ -650,13 +813,16 @@
       <c r="D7">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>-7904</v>
@@ -664,13 +830,16 @@
       <c r="D8">
         <v>-900</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>-7905</v>
@@ -678,13 +847,16 @@
       <c r="D9">
         <v>-800</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>-7907</v>
@@ -692,13 +864,16 @@
       <c r="D10">
         <v>-700</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <v>-7909</v>
@@ -706,13 +881,16 @@
       <c r="D11">
         <v>-600</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C12">
         <v>-7912</v>
@@ -720,13 +898,16 @@
       <c r="D12">
         <v>-500</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>-7917</v>
@@ -734,13 +915,16 @@
       <c r="D13">
         <v>-400</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C14">
         <v>-7922</v>
@@ -748,13 +932,16 @@
       <c r="D14">
         <v>-300</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C15">
         <v>-7926</v>
@@ -762,13 +949,16 @@
       <c r="D15">
         <v>-200</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>-7931</v>
@@ -776,13 +966,16 @@
       <c r="D16">
         <v>-100</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>-7935</v>
@@ -790,13 +983,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>-7940</v>
@@ -804,13 +1000,16 @@
       <c r="D18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C19">
         <v>-7945</v>
@@ -818,13 +1017,16 @@
       <c r="D19">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C20">
         <v>-7950</v>
@@ -832,13 +1034,16 @@
       <c r="D20">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C21">
         <v>-7952</v>
@@ -846,13 +1051,16 @@
       <c r="D21">
         <v>400</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <v>-7955</v>
@@ -860,13 +1068,16 @@
       <c r="D22">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C23">
         <v>-7960</v>
@@ -874,13 +1085,16 @@
       <c r="D23">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>-7962</v>
@@ -888,13 +1102,16 @@
       <c r="D24">
         <v>700</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>-7965</v>
@@ -902,13 +1119,16 @@
       <c r="D25">
         <v>800</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C26">
         <v>-7968</v>
@@ -916,13 +1136,16 @@
       <c r="D26">
         <v>900</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C27">
         <v>-7971</v>
@@ -930,13 +1153,16 @@
       <c r="D27">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C28">
         <v>-7974</v>
@@ -944,13 +1170,16 @@
       <c r="D28">
         <v>1100</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C29">
         <v>-7976</v>
@@ -958,13 +1187,16 @@
       <c r="D29">
         <v>1200</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C30">
         <v>-7978</v>
@@ -972,13 +1204,16 @@
       <c r="D30">
         <v>1300</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C31">
         <v>-7981</v>
@@ -986,13 +1221,16 @@
       <c r="D31">
         <v>1400</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C32">
         <v>-7982</v>
@@ -1000,13 +1238,16 @@
       <c r="D32">
         <v>1500</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>-8050</v>
@@ -1014,13 +1255,16 @@
       <c r="D33">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>-8055</v>
@@ -1028,13 +1272,16 @@
       <c r="D34">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>-8058</v>
@@ -1042,13 +1289,16 @@
       <c r="D35">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>-8060</v>
@@ -1056,13 +1306,16 @@
       <c r="D36">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>-8062</v>
@@ -1070,13 +1323,16 @@
       <c r="D37">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <v>-8067</v>
@@ -1084,13 +1340,16 @@
       <c r="D38">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C39">
         <v>-8071</v>
@@ -1098,13 +1357,16 @@
       <c r="D39">
         <v>-900</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C40">
         <v>-8072</v>
@@ -1112,13 +1374,16 @@
       <c r="D40">
         <v>-800</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C41">
         <v>-8075</v>
@@ -1126,13 +1391,16 @@
       <c r="D41">
         <v>-700</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C42">
         <v>-8080</v>
@@ -1140,13 +1408,16 @@
       <c r="D42">
         <v>-600</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C43">
         <v>-8082</v>
@@ -1154,13 +1425,16 @@
       <c r="D43">
         <v>-500</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C44">
         <v>-8086</v>
@@ -1168,13 +1442,16 @@
       <c r="D44">
         <v>-400</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C45">
         <v>-8090</v>
@@ -1182,13 +1459,16 @@
       <c r="D45">
         <v>-300</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>-8093</v>
@@ -1196,13 +1476,16 @@
       <c r="D46">
         <v>-200</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C47">
         <v>-8094</v>
@@ -1210,13 +1493,16 @@
       <c r="D47">
         <v>-100</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>-8097</v>
@@ -1224,13 +1510,16 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>-8102</v>
@@ -1238,13 +1527,16 @@
       <c r="D49">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C50">
         <v>-8106</v>
@@ -1252,13 +1544,16 @@
       <c r="D50">
         <v>200</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>-8111</v>
@@ -1266,13 +1561,16 @@
       <c r="D51">
         <v>300</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C52">
         <v>-8112</v>
@@ -1280,13 +1578,16 @@
       <c r="D52">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <v>-8116</v>
@@ -1294,13 +1595,16 @@
       <c r="D53">
         <v>500</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C54">
         <v>-8120</v>
@@ -1308,13 +1612,16 @@
       <c r="D54">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <v>-8125</v>
@@ -1322,13 +1629,16 @@
       <c r="D55">
         <v>700</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C56">
         <v>-8126</v>
@@ -1336,13 +1646,16 @@
       <c r="D56">
         <v>800</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C57">
         <v>-8128</v>
@@ -1350,13 +1663,16 @@
       <c r="D57">
         <v>900</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C58">
         <v>-8131</v>
@@ -1364,13 +1680,16 @@
       <c r="D58">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>-8134</v>
@@ -1378,13 +1697,16 @@
       <c r="D59">
         <v>1100</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C60">
         <v>-8135</v>
@@ -1392,13 +1714,16 @@
       <c r="D60">
         <v>1200</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C61">
         <v>-8139</v>
@@ -1406,13 +1731,16 @@
       <c r="D61">
         <v>1300</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C62">
         <v>-8140</v>
@@ -1420,13 +1748,16 @@
       <c r="D62">
         <v>1400</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C63">
         <v>-8144</v>
@@ -1434,13 +1765,16 @@
       <c r="D63">
         <v>1500</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C64">
         <v>-8350</v>
@@ -1448,13 +1782,16 @@
       <c r="D64">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C65">
         <v>-8354</v>
@@ -1462,13 +1799,16 @@
       <c r="D65">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C66">
         <v>-8357</v>
@@ -1476,13 +1816,16 @@
       <c r="D66">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C67">
         <v>-8361</v>
@@ -1490,13 +1833,16 @@
       <c r="D67">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C68">
         <v>-8365</v>
@@ -1504,13 +1850,16 @@
       <c r="D68">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C69">
         <v>-8369</v>
@@ -1518,13 +1867,16 @@
       <c r="D69">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C70">
         <v>-8371</v>
@@ -1532,13 +1884,16 @@
       <c r="D70">
         <v>-900</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C71">
         <v>-8375</v>
@@ -1546,13 +1901,16 @@
       <c r="D71">
         <v>-800</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C72">
         <v>-8379</v>
@@ -1560,13 +1918,16 @@
       <c r="D72">
         <v>-700</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C73">
         <v>-8381</v>
@@ -1574,13 +1935,16 @@
       <c r="D73">
         <v>-600</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>-8386</v>
@@ -1588,13 +1952,16 @@
       <c r="D74">
         <v>-500</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>-8391</v>
@@ -1602,13 +1969,16 @@
       <c r="D75">
         <v>-400</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>-8392</v>
@@ -1616,13 +1986,16 @@
       <c r="D76">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>-8397</v>
@@ -1630,13 +2003,16 @@
       <c r="D77">
         <v>-200</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>-8401</v>
@@ -1644,13 +2020,16 @@
       <c r="D78">
         <v>-100</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>-8404</v>
@@ -1658,13 +2037,16 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>-8406</v>
@@ -1672,13 +2054,16 @@
       <c r="D80">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C81">
         <v>-8409</v>
@@ -1686,13 +2071,16 @@
       <c r="D81">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C82">
         <v>-8411</v>
@@ -1700,13 +2088,16 @@
       <c r="D82">
         <v>300</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>-8413</v>
@@ -1714,13 +2105,16 @@
       <c r="D83">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C84">
         <v>-8414</v>
@@ -1728,13 +2122,16 @@
       <c r="D84">
         <v>500</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>-8415</v>
@@ -1742,13 +2139,16 @@
       <c r="D85">
         <v>600</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C86">
         <v>-8416</v>
@@ -1756,13 +2156,16 @@
       <c r="D86">
         <v>700</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C87">
         <v>-8418</v>
@@ -1770,13 +2173,16 @@
       <c r="D87">
         <v>800</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C88">
         <v>-8423</v>
@@ -1784,13 +2190,16 @@
       <c r="D88">
         <v>900</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C89">
         <v>-8428</v>
@@ -1798,13 +2207,16 @@
       <c r="D89">
         <v>1000</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C90">
         <v>-8430</v>
@@ -1812,13 +2224,16 @@
       <c r="D90">
         <v>1100</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C91">
         <v>-8435</v>
@@ -1826,13 +2241,16 @@
       <c r="D91">
         <v>1200</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C92">
         <v>-8439</v>
@@ -1840,13 +2258,16 @@
       <c r="D92">
         <v>1300</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C93">
         <v>-8443</v>
@@ -1854,13 +2275,16 @@
       <c r="D93">
         <v>1400</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C94">
         <v>-8447</v>
@@ -1868,13 +2292,16 @@
       <c r="D94">
         <v>1500</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C95">
         <v>-7983</v>
@@ -1883,15 +2310,18 @@
         <v>-1470</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C96">
         <v>-7939</v>
@@ -1900,15 +2330,18 @@
         <v>-1290</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C97">
         <v>-7996</v>
@@ -1917,15 +2350,18 @@
         <v>-1000</v>
       </c>
       <c r="E97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C98">
         <v>-7955</v>
@@ -1934,15 +2370,18 @@
         <v>-875</v>
       </c>
       <c r="E98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C99">
         <v>-8008</v>
@@ -1951,15 +2390,18 @@
         <v>-650</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C100">
         <v>-7971</v>
@@ -1968,15 +2410,18 @@
         <v>-425</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C101">
         <v>-8025</v>
@@ -1985,15 +2430,18 @@
         <v>-205</v>
       </c>
       <c r="E101" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C102">
         <v>-7985</v>
@@ -2002,15 +2450,18 @@
         <v>-50</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C103">
         <v>-8035</v>
@@ -2019,15 +2470,18 @@
         <v>225</v>
       </c>
       <c r="E103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C104">
         <v>-8000</v>
@@ -2036,15 +2490,18 @@
         <v>560</v>
       </c>
       <c r="E104" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C105">
         <v>-8050</v>
@@ -2053,15 +2510,18 @@
         <v>755</v>
       </c>
       <c r="E105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C106">
         <v>-8010</v>
@@ -2070,15 +2530,18 @@
         <v>904</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C107">
         <v>-8056</v>
@@ -2087,15 +2550,18 @@
         <v>1090</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C108">
         <v>-8015</v>
@@ -2104,15 +2570,18 @@
         <v>1150</v>
       </c>
       <c r="E108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C109">
         <v>-8062</v>
@@ -2121,15 +2590,18 @@
         <v>1245</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C110">
         <v>-8023</v>
@@ -2138,15 +2610,18 @@
         <v>1425</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C111">
         <v>-8229</v>
@@ -2155,15 +2630,18 @@
         <v>-1420</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C112">
         <v>-8155</v>
@@ -2172,15 +2650,18 @@
         <v>-1310</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C113">
         <v>-8237</v>
@@ -2189,15 +2670,18 @@
         <v>-1150</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C114">
         <v>-8163</v>
@@ -2206,15 +2690,18 @@
         <v>-905</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C115">
         <v>-8252</v>
@@ -2223,15 +2710,18 @@
         <v>-703</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C116">
         <v>-8177</v>
@@ -2240,15 +2730,18 @@
         <v>-500</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C117">
         <v>-8264</v>
@@ -2257,15 +2750,18 @@
         <v>-375</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C118">
         <v>-8191</v>
@@ -2274,15 +2770,18 @@
         <v>-95</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C119">
         <v>-8274</v>
@@ -2291,15 +2790,18 @@
         <v>90</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C120">
         <v>-8203</v>
@@ -2308,15 +2810,18 @@
         <v>308</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C121">
         <v>-8292</v>
@@ -2325,15 +2830,18 @@
         <v>603</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C122">
         <v>-8223</v>
@@ -2342,15 +2850,18 @@
         <v>855</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C123">
         <v>-8306</v>
@@ -2359,15 +2870,18 @@
         <v>1036</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C124">
         <v>-8232</v>
@@ -2376,15 +2890,18 @@
         <v>1180</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C125">
         <v>-8312</v>
@@ -2393,15 +2910,18 @@
         <v>1305</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C126">
         <v>-8659</v>
@@ -2410,15 +2930,18 @@
         <v>-1350</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C127">
         <v>-8746</v>
@@ -2427,15 +2950,18 @@
         <v>-1125</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C128">
         <v>-8684</v>
@@ -2444,15 +2970,18 @@
         <v>-900</v>
       </c>
       <c r="E128" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C129">
         <v>-8767</v>
@@ -2461,15 +2990,18 @@
         <v>-675</v>
       </c>
       <c r="E129" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C130">
         <v>-8702</v>
@@ -2478,15 +3010,18 @@
         <v>-450</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C131">
         <v>-8771</v>
@@ -2495,15 +3030,18 @@
         <v>-225</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C132">
         <v>-8702</v>
@@ -2512,15 +3050,18 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C133">
         <v>-8771</v>
@@ -2529,15 +3070,18 @@
         <v>275</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C134">
         <v>-8701</v>
@@ -2546,15 +3090,18 @@
         <v>550</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C135">
         <v>-8781</v>
@@ -2563,15 +3110,18 @@
         <v>825</v>
       </c>
       <c r="E135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C136">
         <v>-8715</v>
@@ -2580,15 +3130,18 @@
         <v>1100</v>
       </c>
       <c r="E136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C137">
         <v>-8798</v>
@@ -2597,6 +3150,2450 @@
         <v>1375</v>
       </c>
       <c r="E137" t="s">
+        <v>101</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138">
+        <v>-7890</v>
+      </c>
+      <c r="D138">
+        <v>-1500</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>-7894</v>
+      </c>
+      <c r="D139">
+        <v>-1400</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140">
+        <v>-7896</v>
+      </c>
+      <c r="D140">
+        <v>-1300</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>-7897</v>
+      </c>
+      <c r="D141">
+        <v>-1200</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>-7898</v>
+      </c>
+      <c r="D142">
+        <v>-1100</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <v>-7902</v>
+      </c>
+      <c r="D143">
+        <v>-1000</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144">
+        <v>-7904</v>
+      </c>
+      <c r="D144">
+        <v>-900</v>
+      </c>
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>-7905</v>
+      </c>
+      <c r="D145">
+        <v>-800</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <v>-7907</v>
+      </c>
+      <c r="D146">
+        <v>-700</v>
+      </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <v>-7909</v>
+      </c>
+      <c r="D147">
+        <v>-600</v>
+      </c>
+      <c r="F147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <v>-7912</v>
+      </c>
+      <c r="D148">
+        <v>-500</v>
+      </c>
+      <c r="F148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149">
+        <v>-7917</v>
+      </c>
+      <c r="D149">
+        <v>-400</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>-7922</v>
+      </c>
+      <c r="D150">
+        <v>-300</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>-7926</v>
+      </c>
+      <c r="D151">
+        <v>-200</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>-7931</v>
+      </c>
+      <c r="D152">
+        <v>-100</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>-7935</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154">
+        <v>-7940</v>
+      </c>
+      <c r="D154">
+        <v>100</v>
+      </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155">
+        <v>-7945</v>
+      </c>
+      <c r="D155">
+        <v>200</v>
+      </c>
+      <c r="F155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156">
+        <v>-7950</v>
+      </c>
+      <c r="D156">
+        <v>300</v>
+      </c>
+      <c r="F156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>-7952</v>
+      </c>
+      <c r="D157">
+        <v>400</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158">
+        <v>-7955</v>
+      </c>
+      <c r="D158">
+        <v>500</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159">
+        <v>-7960</v>
+      </c>
+      <c r="D159">
+        <v>600</v>
+      </c>
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>-7962</v>
+      </c>
+      <c r="D160">
+        <v>700</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>-7965</v>
+      </c>
+      <c r="D161">
+        <v>800</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162">
+        <v>-7968</v>
+      </c>
+      <c r="D162">
+        <v>900</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163">
+        <v>-7971</v>
+      </c>
+      <c r="D163">
+        <v>1000</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <v>-7974</v>
+      </c>
+      <c r="D164">
+        <v>1100</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>-7976</v>
+      </c>
+      <c r="D165">
+        <v>1200</v>
+      </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166">
+        <v>-7978</v>
+      </c>
+      <c r="D166">
+        <v>1300</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>-7981</v>
+      </c>
+      <c r="D167">
+        <v>1400</v>
+      </c>
+      <c r="F167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168">
+        <v>-7982</v>
+      </c>
+      <c r="D168">
+        <v>1500</v>
+      </c>
+      <c r="F168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169">
+        <v>-8050</v>
+      </c>
+      <c r="D169">
+        <v>-1500</v>
+      </c>
+      <c r="F169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170">
+        <v>-8055</v>
+      </c>
+      <c r="D170">
+        <v>-1400</v>
+      </c>
+      <c r="F170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171">
+        <v>-8058</v>
+      </c>
+      <c r="D171">
+        <v>-1300</v>
+      </c>
+      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172">
+        <v>-8060</v>
+      </c>
+      <c r="D172">
+        <v>-1200</v>
+      </c>
+      <c r="F172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173">
+        <v>-8062</v>
+      </c>
+      <c r="D173">
+        <v>-1100</v>
+      </c>
+      <c r="F173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174">
+        <v>-8067</v>
+      </c>
+      <c r="D174">
+        <v>-1000</v>
+      </c>
+      <c r="F174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175">
+        <v>-8071</v>
+      </c>
+      <c r="D175">
+        <v>-900</v>
+      </c>
+      <c r="F175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176">
+        <v>-8072</v>
+      </c>
+      <c r="D176">
+        <v>-800</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177">
+        <v>-8075</v>
+      </c>
+      <c r="D177">
+        <v>-700</v>
+      </c>
+      <c r="F177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178">
+        <v>-8080</v>
+      </c>
+      <c r="D178">
+        <v>-600</v>
+      </c>
+      <c r="F178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179">
+        <v>-8082</v>
+      </c>
+      <c r="D179">
+        <v>-500</v>
+      </c>
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180">
+        <v>-8086</v>
+      </c>
+      <c r="D180">
+        <v>-400</v>
+      </c>
+      <c r="F180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181">
+        <v>-8090</v>
+      </c>
+      <c r="D181">
+        <v>-300</v>
+      </c>
+      <c r="F181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182">
+        <v>-8093</v>
+      </c>
+      <c r="D182">
+        <v>-200</v>
+      </c>
+      <c r="F182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183">
+        <v>-8094</v>
+      </c>
+      <c r="D183">
+        <v>-100</v>
+      </c>
+      <c r="F183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184">
+        <v>-8097</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="F184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185">
+        <v>-8102</v>
+      </c>
+      <c r="D185">
+        <v>100</v>
+      </c>
+      <c r="F185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186">
+        <v>-8106</v>
+      </c>
+      <c r="D186">
+        <v>200</v>
+      </c>
+      <c r="F186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187">
+        <v>-8111</v>
+      </c>
+      <c r="D187">
+        <v>300</v>
+      </c>
+      <c r="F187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188">
+        <v>-8112</v>
+      </c>
+      <c r="D188">
+        <v>400</v>
+      </c>
+      <c r="F188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189">
+        <v>-8116</v>
+      </c>
+      <c r="D189">
+        <v>500</v>
+      </c>
+      <c r="F189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190">
+        <v>-8120</v>
+      </c>
+      <c r="D190">
+        <v>600</v>
+      </c>
+      <c r="F190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191">
+        <v>-8125</v>
+      </c>
+      <c r="D191">
+        <v>700</v>
+      </c>
+      <c r="F191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192">
+        <v>-8126</v>
+      </c>
+      <c r="D192">
+        <v>800</v>
+      </c>
+      <c r="F192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193">
+        <v>-8128</v>
+      </c>
+      <c r="D193">
+        <v>900</v>
+      </c>
+      <c r="F193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194">
+        <v>-8131</v>
+      </c>
+      <c r="D194">
+        <v>1000</v>
+      </c>
+      <c r="F194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195">
+        <v>-8134</v>
+      </c>
+      <c r="D195">
+        <v>1100</v>
+      </c>
+      <c r="F195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196">
+        <v>-8135</v>
+      </c>
+      <c r="D196">
+        <v>1200</v>
+      </c>
+      <c r="F196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197">
+        <v>-8139</v>
+      </c>
+      <c r="D197">
+        <v>1300</v>
+      </c>
+      <c r="F197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198">
+        <v>-8140</v>
+      </c>
+      <c r="D198">
+        <v>1400</v>
+      </c>
+      <c r="F198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199">
+        <v>-8144</v>
+      </c>
+      <c r="D199">
+        <v>1500</v>
+      </c>
+      <c r="F199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200">
+        <v>-8350</v>
+      </c>
+      <c r="D200">
+        <v>-1500</v>
+      </c>
+      <c r="F200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201">
+        <v>-8354</v>
+      </c>
+      <c r="D201">
+        <v>-1400</v>
+      </c>
+      <c r="F201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202">
+        <v>-8357</v>
+      </c>
+      <c r="D202">
+        <v>-1300</v>
+      </c>
+      <c r="F202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203">
+        <v>-8361</v>
+      </c>
+      <c r="D203">
+        <v>-1200</v>
+      </c>
+      <c r="F203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204">
+        <v>-8365</v>
+      </c>
+      <c r="D204">
+        <v>-1100</v>
+      </c>
+      <c r="F204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205">
+        <v>-8369</v>
+      </c>
+      <c r="D205">
+        <v>-1000</v>
+      </c>
+      <c r="F205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206">
+        <v>-8371</v>
+      </c>
+      <c r="D206">
+        <v>-900</v>
+      </c>
+      <c r="F206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207">
+        <v>-8375</v>
+      </c>
+      <c r="D207">
+        <v>-800</v>
+      </c>
+      <c r="F207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208">
+        <v>-8379</v>
+      </c>
+      <c r="D208">
+        <v>-700</v>
+      </c>
+      <c r="F208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209">
+        <v>-8381</v>
+      </c>
+      <c r="D209">
+        <v>-600</v>
+      </c>
+      <c r="F209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210">
+        <v>-8386</v>
+      </c>
+      <c r="D210">
+        <v>-500</v>
+      </c>
+      <c r="F210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211">
+        <v>-8391</v>
+      </c>
+      <c r="D211">
+        <v>-400</v>
+      </c>
+      <c r="F211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212">
+        <v>-8392</v>
+      </c>
+      <c r="D212">
+        <v>-300</v>
+      </c>
+      <c r="F212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213">
+        <v>-8397</v>
+      </c>
+      <c r="D213">
+        <v>-200</v>
+      </c>
+      <c r="F213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214">
+        <v>-8401</v>
+      </c>
+      <c r="D214">
+        <v>-100</v>
+      </c>
+      <c r="F214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215">
+        <v>-8404</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="F215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216">
+        <v>-8406</v>
+      </c>
+      <c r="D216">
+        <v>100</v>
+      </c>
+      <c r="F216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217">
+        <v>-8409</v>
+      </c>
+      <c r="D217">
+        <v>200</v>
+      </c>
+      <c r="F217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218">
+        <v>-8411</v>
+      </c>
+      <c r="D218">
+        <v>300</v>
+      </c>
+      <c r="F218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219">
+        <v>-8413</v>
+      </c>
+      <c r="D219">
+        <v>400</v>
+      </c>
+      <c r="F219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220">
+        <v>-8414</v>
+      </c>
+      <c r="D220">
+        <v>500</v>
+      </c>
+      <c r="F220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221">
+        <v>-8415</v>
+      </c>
+      <c r="D221">
+        <v>600</v>
+      </c>
+      <c r="F221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222">
+        <v>-8416</v>
+      </c>
+      <c r="D222">
+        <v>700</v>
+      </c>
+      <c r="F222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223">
+        <v>-8418</v>
+      </c>
+      <c r="D223">
+        <v>800</v>
+      </c>
+      <c r="F223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224">
+        <v>-8423</v>
+      </c>
+      <c r="D224">
+        <v>900</v>
+      </c>
+      <c r="F224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225">
+        <v>-8428</v>
+      </c>
+      <c r="D225">
+        <v>1000</v>
+      </c>
+      <c r="F225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226">
+        <v>-8430</v>
+      </c>
+      <c r="D226">
+        <v>1100</v>
+      </c>
+      <c r="F226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227">
+        <v>-8435</v>
+      </c>
+      <c r="D227">
+        <v>1200</v>
+      </c>
+      <c r="F227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228">
+        <v>-8439</v>
+      </c>
+      <c r="D228">
+        <v>1300</v>
+      </c>
+      <c r="F228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229">
+        <v>-8443</v>
+      </c>
+      <c r="D229">
+        <v>1400</v>
+      </c>
+      <c r="F229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230">
+        <v>-8447</v>
+      </c>
+      <c r="D230">
+        <v>1500</v>
+      </c>
+      <c r="F230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
+        <v>56</v>
+      </c>
+      <c r="C231">
+        <v>-7983</v>
+      </c>
+      <c r="D231">
+        <v>-1470</v>
+      </c>
+      <c r="E231" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>2</v>
+      </c>
+      <c r="B232" t="s">
+        <v>57</v>
+      </c>
+      <c r="C232">
+        <v>-7939</v>
+      </c>
+      <c r="D232">
+        <v>-1290</v>
+      </c>
+      <c r="E232" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>2</v>
+      </c>
+      <c r="B233" t="s">
+        <v>58</v>
+      </c>
+      <c r="C233">
+        <v>-7996</v>
+      </c>
+      <c r="D233">
+        <v>-1000</v>
+      </c>
+      <c r="E233" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234" t="s">
+        <v>59</v>
+      </c>
+      <c r="C234">
+        <v>-7955</v>
+      </c>
+      <c r="D234">
+        <v>-875</v>
+      </c>
+      <c r="E234" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>2</v>
+      </c>
+      <c r="B235" t="s">
+        <v>60</v>
+      </c>
+      <c r="C235">
+        <v>-8008</v>
+      </c>
+      <c r="D235">
+        <v>-650</v>
+      </c>
+      <c r="E235" t="s">
+        <v>10</v>
+      </c>
+      <c r="F235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236" t="s">
+        <v>61</v>
+      </c>
+      <c r="C236">
+        <v>-7971</v>
+      </c>
+      <c r="D236">
+        <v>-425</v>
+      </c>
+      <c r="E236" t="s">
+        <v>10</v>
+      </c>
+      <c r="F236" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237" t="s">
+        <v>62</v>
+      </c>
+      <c r="C237">
+        <v>-8025</v>
+      </c>
+      <c r="D237">
+        <v>-205</v>
+      </c>
+      <c r="E237" t="s">
+        <v>10</v>
+      </c>
+      <c r="F237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>2</v>
+      </c>
+      <c r="B238" t="s">
+        <v>63</v>
+      </c>
+      <c r="C238">
+        <v>-7985</v>
+      </c>
+      <c r="D238">
+        <v>-50</v>
+      </c>
+      <c r="E238" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239" t="s">
+        <v>64</v>
+      </c>
+      <c r="C239">
+        <v>-8035</v>
+      </c>
+      <c r="D239">
+        <v>225</v>
+      </c>
+      <c r="E239" t="s">
+        <v>10</v>
+      </c>
+      <c r="F239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>2</v>
+      </c>
+      <c r="B240" t="s">
+        <v>65</v>
+      </c>
+      <c r="C240">
+        <v>-8000</v>
+      </c>
+      <c r="D240">
+        <v>560</v>
+      </c>
+      <c r="E240" t="s">
+        <v>10</v>
+      </c>
+      <c r="F240" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>2</v>
+      </c>
+      <c r="B241" t="s">
+        <v>66</v>
+      </c>
+      <c r="C241">
+        <v>-8050</v>
+      </c>
+      <c r="D241">
+        <v>755</v>
+      </c>
+      <c r="E241" t="s">
+        <v>10</v>
+      </c>
+      <c r="F241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242" t="s">
+        <v>67</v>
+      </c>
+      <c r="C242">
+        <v>-8010</v>
+      </c>
+      <c r="D242">
+        <v>904</v>
+      </c>
+      <c r="E242" t="s">
+        <v>10</v>
+      </c>
+      <c r="F242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>2</v>
+      </c>
+      <c r="B243" t="s">
+        <v>68</v>
+      </c>
+      <c r="C243">
+        <v>-8056</v>
+      </c>
+      <c r="D243">
+        <v>1090</v>
+      </c>
+      <c r="E243" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>2</v>
+      </c>
+      <c r="B244" t="s">
+        <v>69</v>
+      </c>
+      <c r="C244">
+        <v>-8015</v>
+      </c>
+      <c r="D244">
+        <v>1150</v>
+      </c>
+      <c r="E244" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>2</v>
+      </c>
+      <c r="B245" t="s">
+        <v>70</v>
+      </c>
+      <c r="C245">
+        <v>-8062</v>
+      </c>
+      <c r="D245">
+        <v>1245</v>
+      </c>
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" t="s">
+        <v>71</v>
+      </c>
+      <c r="C246">
+        <v>-8023</v>
+      </c>
+      <c r="D246">
+        <v>1425</v>
+      </c>
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>2</v>
+      </c>
+      <c r="B247" t="s">
+        <v>72</v>
+      </c>
+      <c r="C247">
+        <v>-8229</v>
+      </c>
+      <c r="D247">
+        <v>-1420</v>
+      </c>
+      <c r="E247" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248" t="s">
+        <v>73</v>
+      </c>
+      <c r="C248">
+        <v>-8155</v>
+      </c>
+      <c r="D248">
+        <v>-1310</v>
+      </c>
+      <c r="E248" t="s">
+        <v>11</v>
+      </c>
+      <c r="F248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249" t="s">
+        <v>74</v>
+      </c>
+      <c r="C249">
+        <v>-8237</v>
+      </c>
+      <c r="D249">
+        <v>-1150</v>
+      </c>
+      <c r="E249" t="s">
+        <v>11</v>
+      </c>
+      <c r="F249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>2</v>
+      </c>
+      <c r="B250" t="s">
+        <v>75</v>
+      </c>
+      <c r="C250">
+        <v>-8163</v>
+      </c>
+      <c r="D250">
+        <v>-905</v>
+      </c>
+      <c r="E250" t="s">
+        <v>11</v>
+      </c>
+      <c r="F250" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" t="s">
+        <v>76</v>
+      </c>
+      <c r="C251">
+        <v>-8252</v>
+      </c>
+      <c r="D251">
+        <v>-703</v>
+      </c>
+      <c r="E251" t="s">
+        <v>11</v>
+      </c>
+      <c r="F251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" t="s">
+        <v>77</v>
+      </c>
+      <c r="C252">
+        <v>-8177</v>
+      </c>
+      <c r="D252">
+        <v>-500</v>
+      </c>
+      <c r="E252" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253" t="s">
+        <v>78</v>
+      </c>
+      <c r="C253">
+        <v>-8264</v>
+      </c>
+      <c r="D253">
+        <v>-375</v>
+      </c>
+      <c r="E253" t="s">
+        <v>11</v>
+      </c>
+      <c r="F253" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>2</v>
+      </c>
+      <c r="B254" t="s">
+        <v>79</v>
+      </c>
+      <c r="C254">
+        <v>-8191</v>
+      </c>
+      <c r="D254">
+        <v>-95</v>
+      </c>
+      <c r="E254" t="s">
+        <v>11</v>
+      </c>
+      <c r="F254" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255" t="s">
+        <v>80</v>
+      </c>
+      <c r="C255">
+        <v>-8274</v>
+      </c>
+      <c r="D255">
+        <v>90</v>
+      </c>
+      <c r="E255" t="s">
+        <v>11</v>
+      </c>
+      <c r="F255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256" t="s">
+        <v>81</v>
+      </c>
+      <c r="C256">
+        <v>-8203</v>
+      </c>
+      <c r="D256">
+        <v>308</v>
+      </c>
+      <c r="E256" t="s">
+        <v>11</v>
+      </c>
+      <c r="F256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257" t="s">
+        <v>82</v>
+      </c>
+      <c r="C257">
+        <v>-8292</v>
+      </c>
+      <c r="D257">
+        <v>603</v>
+      </c>
+      <c r="E257" t="s">
+        <v>11</v>
+      </c>
+      <c r="F257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258" t="s">
+        <v>83</v>
+      </c>
+      <c r="C258">
+        <v>-8223</v>
+      </c>
+      <c r="D258">
+        <v>855</v>
+      </c>
+      <c r="E258" t="s">
+        <v>11</v>
+      </c>
+      <c r="F258" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>2</v>
+      </c>
+      <c r="B259" t="s">
+        <v>84</v>
+      </c>
+      <c r="C259">
+        <v>-8306</v>
+      </c>
+      <c r="D259">
+        <v>1036</v>
+      </c>
+      <c r="E259" t="s">
+        <v>11</v>
+      </c>
+      <c r="F259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>2</v>
+      </c>
+      <c r="B260" t="s">
+        <v>85</v>
+      </c>
+      <c r="C260">
+        <v>-8232</v>
+      </c>
+      <c r="D260">
+        <v>1180</v>
+      </c>
+      <c r="E260" t="s">
+        <v>11</v>
+      </c>
+      <c r="F260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" t="s">
+        <v>86</v>
+      </c>
+      <c r="C261">
+        <v>-8312</v>
+      </c>
+      <c r="D261">
+        <v>1305</v>
+      </c>
+      <c r="E261" t="s">
+        <v>11</v>
+      </c>
+      <c r="F261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" t="s">
+        <v>87</v>
+      </c>
+      <c r="C262">
+        <v>-8659</v>
+      </c>
+      <c r="D262">
+        <v>-1350</v>
+      </c>
+      <c r="E262" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>2</v>
+      </c>
+      <c r="B263" t="s">
+        <v>88</v>
+      </c>
+      <c r="C263">
+        <v>-8746</v>
+      </c>
+      <c r="D263">
+        <v>-1125</v>
+      </c>
+      <c r="E263" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>2</v>
+      </c>
+      <c r="B264" t="s">
+        <v>89</v>
+      </c>
+      <c r="C264">
+        <v>-8684</v>
+      </c>
+      <c r="D264">
+        <v>-900</v>
+      </c>
+      <c r="E264" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>2</v>
+      </c>
+      <c r="B265" t="s">
+        <v>90</v>
+      </c>
+      <c r="C265">
+        <v>-8767</v>
+      </c>
+      <c r="D265">
+        <v>-675</v>
+      </c>
+      <c r="E265" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s">
+        <v>91</v>
+      </c>
+      <c r="C266">
+        <v>-8702</v>
+      </c>
+      <c r="D266">
+        <v>-450</v>
+      </c>
+      <c r="E266" t="s">
+        <v>12</v>
+      </c>
+      <c r="F266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>2</v>
+      </c>
+      <c r="B267" t="s">
+        <v>92</v>
+      </c>
+      <c r="C267">
+        <v>-8771</v>
+      </c>
+      <c r="D267">
+        <v>-225</v>
+      </c>
+      <c r="E267" t="s">
+        <v>12</v>
+      </c>
+      <c r="F267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>2</v>
+      </c>
+      <c r="B268" t="s">
+        <v>93</v>
+      </c>
+      <c r="C268">
+        <v>-8702</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268" t="s">
+        <v>12</v>
+      </c>
+      <c r="F268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269" t="s">
+        <v>94</v>
+      </c>
+      <c r="C269">
+        <v>-8771</v>
+      </c>
+      <c r="D269">
+        <v>275</v>
+      </c>
+      <c r="E269" t="s">
+        <v>12</v>
+      </c>
+      <c r="F269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>2</v>
+      </c>
+      <c r="B270" t="s">
+        <v>95</v>
+      </c>
+      <c r="C270">
+        <v>-8701</v>
+      </c>
+      <c r="D270">
+        <v>550</v>
+      </c>
+      <c r="E270" t="s">
+        <v>12</v>
+      </c>
+      <c r="F270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>2</v>
+      </c>
+      <c r="B271" t="s">
+        <v>96</v>
+      </c>
+      <c r="C271">
+        <v>-8781</v>
+      </c>
+      <c r="D271">
+        <v>825</v>
+      </c>
+      <c r="E271" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>2</v>
+      </c>
+      <c r="B272" t="s">
+        <v>97</v>
+      </c>
+      <c r="C272">
+        <v>-8715</v>
+      </c>
+      <c r="D272">
+        <v>1100</v>
+      </c>
+      <c r="E272" t="s">
+        <v>12</v>
+      </c>
+      <c r="F272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273" t="s">
+        <v>98</v>
+      </c>
+      <c r="C273">
+        <v>-8798</v>
+      </c>
+      <c r="D273">
+        <v>1375</v>
+      </c>
+      <c r="E273" t="s">
+        <v>12</v>
+      </c>
+      <c r="F273" t="s">
         <v>9</v>
       </c>
     </row>
